--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl1-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl1-Cxcr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.506542</v>
+        <v>25.28841266666667</v>
       </c>
       <c r="H2">
-        <v>244.519626</v>
+        <v>75.86523800000001</v>
       </c>
       <c r="I2">
-        <v>0.2392262902761414</v>
+        <v>0.08258585054448338</v>
       </c>
       <c r="J2">
-        <v>0.2392262902761414</v>
+        <v>0.08258585054448338</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N2">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O2">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P2">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q2">
-        <v>11497.09793610644</v>
+        <v>0.9932951316631111</v>
       </c>
       <c r="R2">
-        <v>103473.881424958</v>
+        <v>8.939656184968001</v>
       </c>
       <c r="S2">
-        <v>0.2360543902757287</v>
+        <v>0.06138214269343414</v>
       </c>
       <c r="T2">
-        <v>0.2360543902757287</v>
+        <v>0.06138214269343415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.506542</v>
+        <v>25.28841266666667</v>
       </c>
       <c r="H3">
-        <v>244.519626</v>
+        <v>75.86523800000001</v>
       </c>
       <c r="I3">
-        <v>0.2392262902761414</v>
+        <v>0.08258585054448338</v>
       </c>
       <c r="J3">
-        <v>0.2392262902761414</v>
+        <v>0.08258585054448338</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N3">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O3">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P3">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q3">
-        <v>154.48831477222</v>
+        <v>0.3431216125322223</v>
       </c>
       <c r="R3">
-        <v>1390.39483294998</v>
+        <v>3.08809451279</v>
       </c>
       <c r="S3">
-        <v>0.003171900000412733</v>
+        <v>0.02120370785104923</v>
       </c>
       <c r="T3">
-        <v>0.003171900000412732</v>
+        <v>0.02120370785104923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>585.1517190000001</v>
       </c>
       <c r="I4">
-        <v>0.5724844147482753</v>
+        <v>0.6369880815661784</v>
       </c>
       <c r="J4">
-        <v>0.5724844147482753</v>
+        <v>0.6369880815661784</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N4">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O4">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P4">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q4">
-        <v>27513.31960905271</v>
+        <v>7.661326440009333</v>
       </c>
       <c r="R4">
-        <v>247619.8764814744</v>
+        <v>68.95193796008401</v>
       </c>
       <c r="S4">
-        <v>0.5648938472012039</v>
+        <v>0.4734430057804113</v>
       </c>
       <c r="T4">
-        <v>0.5648938472012039</v>
+        <v>0.4734430057804114</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>585.1517190000001</v>
       </c>
       <c r="I5">
-        <v>0.5724844147482753</v>
+        <v>0.6369880815661784</v>
       </c>
       <c r="J5">
-        <v>0.5724844147482753</v>
+        <v>0.6369880815661784</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N5">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O5">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P5">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q5">
-        <v>369.7008065699301</v>
+        <v>2.646511191321667</v>
       </c>
       <c r="R5">
-        <v>3327.307259129371</v>
+        <v>23.818600721895</v>
       </c>
       <c r="S5">
-        <v>0.0075905675470713</v>
+        <v>0.163545075785767</v>
       </c>
       <c r="T5">
-        <v>0.007590567547071299</v>
+        <v>0.163545075785767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.21833233333334</v>
+        <v>55.14511</v>
       </c>
       <c r="H6">
-        <v>132.654997</v>
+        <v>165.43533</v>
       </c>
       <c r="I6">
-        <v>0.1297832952635985</v>
+        <v>0.180090615917626</v>
       </c>
       <c r="J6">
-        <v>0.1297832952635985</v>
+        <v>0.180090615917626</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N6">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O6">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P6">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q6">
-        <v>6237.321384676525</v>
+        <v>2.166026393986666</v>
       </c>
       <c r="R6">
-        <v>56135.89246208873</v>
+        <v>19.49423754588</v>
       </c>
       <c r="S6">
-        <v>0.1280624993016455</v>
+        <v>0.1338528066384681</v>
       </c>
       <c r="T6">
-        <v>0.1280624993016455</v>
+        <v>0.1338528066384682</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.21833233333334</v>
+        <v>55.14511</v>
       </c>
       <c r="H7">
-        <v>132.654997</v>
+        <v>165.43533</v>
       </c>
       <c r="I7">
-        <v>0.1297832952635985</v>
+        <v>0.180090615917626</v>
       </c>
       <c r="J7">
-        <v>0.1297832952635985</v>
+        <v>0.180090615917626</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N7">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O7">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P7">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q7">
-        <v>83.81186928792334</v>
+        <v>0.7482272341833333</v>
       </c>
       <c r="R7">
-        <v>754.3068235913101</v>
+        <v>6.734045107649999</v>
       </c>
       <c r="S7">
-        <v>0.001720795961952973</v>
+        <v>0.04623780927915786</v>
       </c>
       <c r="T7">
-        <v>0.001720795961952972</v>
+        <v>0.04623780927915786</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.93351866666666</v>
+        <v>30.723475</v>
       </c>
       <c r="H8">
-        <v>59.80055599999999</v>
+        <v>92.17042499999999</v>
       </c>
       <c r="I8">
-        <v>0.05850599971198488</v>
+        <v>0.1003354519717122</v>
       </c>
       <c r="J8">
-        <v>0.05850599971198487</v>
+        <v>0.1003354519717122</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N8">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O8">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P8">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q8">
-        <v>2811.769591720288</v>
+        <v>1.206777133366666</v>
       </c>
       <c r="R8">
-        <v>25305.92632548259</v>
+        <v>10.8609942003</v>
       </c>
       <c r="S8">
-        <v>0.05773026899987802</v>
+        <v>0.07457457893250752</v>
       </c>
       <c r="T8">
-        <v>0.05773026899987801</v>
+        <v>0.07457457893250753</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.93351866666666</v>
+        <v>30.723475</v>
       </c>
       <c r="H9">
-        <v>59.80055599999999</v>
+        <v>92.17042499999999</v>
       </c>
       <c r="I9">
-        <v>0.05850599971198488</v>
+        <v>0.1003354519717122</v>
       </c>
       <c r="J9">
-        <v>0.05850599971198487</v>
+        <v>0.1003354519717122</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N9">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O9">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P9">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q9">
-        <v>37.78219061598666</v>
+        <v>0.4168663499583333</v>
       </c>
       <c r="R9">
-        <v>340.03971554388</v>
+        <v>3.751797149625</v>
       </c>
       <c r="S9">
-        <v>0.0007757307121068541</v>
+        <v>0.02576087303920465</v>
       </c>
       <c r="T9">
-        <v>0.000775730712106854</v>
+        <v>0.02576087303920465</v>
       </c>
     </row>
   </sheetData>
